--- a/Mifos Automation Excels/Loan Product/920-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/920-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>productname</t>
   </si>
@@ -209,9 +209,6 @@
     <t>accrualperiodic</t>
   </si>
   <si>
-    <t xml:space="preserve">  01-01-2015</t>
-  </si>
-  <si>
     <t>Per month</t>
   </si>
   <si>
@@ -228,6 +225,12 @@
   </si>
   <si>
     <t>Overdue/Due Fee/Int,Principal</t>
+  </si>
+  <si>
+    <t>allowPartialPeriodInterestCalcualtion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  01 January 2015</t>
   </si>
 </sst>
 </file>
@@ -642,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -681,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -694,10 +697,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -746,7 +749,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -787,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -799,202 +802,210 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>19</v>
+      <c r="A19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B27" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B28" s="18">
         <v>42005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B30" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="6">
+    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1018,7 +1029,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>61</v>

--- a/Mifos Automation Excels/Loan Product/920-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/920-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -191,12 +191,6 @@
     <t>Overpayment Liability</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Dollar </t>
-  </si>
-  <si>
     <t>Equal principal payments</t>
   </si>
   <si>
@@ -228,6 +222,12 @@
   </si>
   <si>
     <t>maximumallowedoutstandingbalancefortranchloan</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
   </si>
 </sst>
 </file>
@@ -303,7 +303,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -337,6 +337,7 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -657,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -679,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -691,11 +692,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>59</v>
+      <c r="A6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -744,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -769,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -793,7 +794,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -825,7 +826,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -854,7 +855,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="17">
         <v>1</v>
@@ -862,7 +863,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" s="18">
         <v>42005</v>
@@ -884,9 +885,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30" s="6">
         <v>10000</v>
@@ -894,7 +895,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>8</v>
@@ -1006,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1016,10 +1017,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/920-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/920-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -65,9 +65,6 @@
     <t>repaymentstrategy</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>interestcalculationperiod</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>US Dollar</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -303,7 +303,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -338,6 +338,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,7 +645,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -658,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -680,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -693,10 +694,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -726,7 +727,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7">
         <v>12</v>
@@ -734,7 +735,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -745,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -761,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -770,7 +771,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -785,37 +786,37 @@
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>16</v>
+      <c r="B17" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>8</v>
@@ -823,39 +824,39 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="17">
         <v>1</v>
@@ -863,7 +864,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="18">
         <v>42005</v>
@@ -871,7 +872,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
@@ -879,7 +880,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -887,7 +888,7 @@
     </row>
     <row r="30" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="6">
         <v>10000</v>
@@ -895,7 +896,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>8</v>
@@ -903,98 +904,98 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1017,10 +1018,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
